--- a/lager.xlsx
+++ b/lager.xlsx
@@ -466,7 +466,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
         <v>300</v>
@@ -498,7 +498,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
         <v>600</v>
@@ -514,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
